--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3267267.880005882</v>
+        <v>3262935.395185189</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8417584.230471388</v>
+        <v>8417584.230471389</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>139.9164830972606</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>59.01177817175181</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>174.8813118982898</v>
+        <v>155.2114886365811</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>90.7080251030368</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>69.0708624534348</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.46389722690856</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>341.9513341580919</v>
+        <v>362.4006936231293</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>156.897475360631</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>47.14167849255905</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>74.56049207329603</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>107.1685137621105</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>4.019807611472472</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>66.25628701154758</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>146.7151441592118</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146491</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>111.5361117049718</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>43.73846614325492</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>39.52129633183122</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>172.0260335000785</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,16 +3903,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>272.8976078885847</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1637.643464250441</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1177.688451623019</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>766.7025468334118</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7387387315987</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2363.877877781635</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2363.877877781635</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>2011.109222511521</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>1637.643464250441</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y2" t="n">
-        <v>1637.643464250441</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4527,13 +4527,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="Y4" t="n">
-        <v>551.4811944101821</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.14692331494</v>
+        <v>1095.807382993972</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>1095.807382993972</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1095.807382993972</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>710.0191303957276</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>299.0332256061201</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4564,16 +4564,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2572.351853615953</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2572.351853615953</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2572.351853615953</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>2572.351853615953</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W5" t="n">
-        <v>2572.351853615953</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>2198.886095354873</v>
+        <v>1485.946714969784</v>
       </c>
       <c r="Y5" t="n">
-        <v>1808.746763379062</v>
+        <v>1095.807382993972</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W7" t="n">
-        <v>184.0273259635867</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>413.2717739202503</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C8" t="n">
-        <v>413.2717739202503</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D8" t="n">
-        <v>413.2717739202503</v>
+        <v>819.7159451700475</v>
       </c>
       <c r="E8" t="n">
-        <v>413.2717739202503</v>
+        <v>433.9276925718032</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>1563.476704221264</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>1190.010945960184</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>799.8716139843721</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>358.5813018857447</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C10" t="n">
-        <v>358.5813018857447</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>358.5813018857447</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>358.5813018857447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>540.2297667159844</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>540.2297667159844</v>
+        <v>680.5111271432434</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5056,34 +5056,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>221.3431781811715</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969303</v>
+        <v>352.5519571452619</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2304.603751475798</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2085.00228649874</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1795.927059842937</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1541.24257163705</v>
       </c>
       <c r="W13" t="n">
-        <v>1508.305175991783</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.315625093766</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="14">
@@ -5266,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5287,19 +5287,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5360,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,31 +5527,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5609,10 +5609,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>721.7774158311364</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C19" t="n">
-        <v>552.8412329032295</v>
+        <v>747.3737171343197</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>597.2570777219839</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3439841395908</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>302.4540366416804</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>302.4540366416804</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>160.7422054838785</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U19" t="n">
-        <v>1896.309668945771</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V19" t="n">
-        <v>1641.625180739884</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W19" t="n">
-        <v>1352.208010702924</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X19" t="n">
-        <v>1124.218459804906</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y19" t="n">
-        <v>903.4258806613761</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5773,16 +5773,16 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5837,19 +5837,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3342.537229081859</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>3455.19996817779</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>3455.19996817779</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>3342.537229081859</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1058.183521551621</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1655.562009178173</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>719.5738700011939</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>550.637687073287</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2402.78281474869</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2402.78281474869</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2183.181349771631</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1894.106123115829</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1639.421634909942</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1350.004464872981</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1122.014913974964</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>901.2223348314336</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6545,19 +6545,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6600,22 +6600,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>215.8238677453423</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6691,7 +6691,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6782,19 +6782,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7022,16 +7022,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7259,19 +7259,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7314,16 +7314,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7405,13 +7405,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7432,28 +7432,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578602</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7727,25 +7727,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2104.263230450254</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>106.4657939283486</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>179.3544845744806</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>142.4141550350967</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>15.00954930701793</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>139.4693302300323</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>57.22910392194186</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>107.048541647123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>22.63678056686677</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>105.8997516911</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>45.37941682720972</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>186.1428431935225</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>13.28686650065941</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>710522.8824838417</v>
+        <v>710522.8824838419</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>710522.8824838419</v>
+        <v>710522.8824838417</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>710522.8824838419</v>
+        <v>710522.8824838417</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>710522.8824838417</v>
+        <v>710522.8824838419</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>710522.8824838417</v>
+        <v>710522.8824838419</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312477</v>
+      </c>
+      <c r="C2" t="n">
         <v>718411.5486312478</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312479</v>
-      </c>
       <c r="D2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287558</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.274728755</v>
       </c>
       <c r="G2" t="n">
+        <v>706253.2747287549</v>
+      </c>
+      <c r="H2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287555</v>
       </c>
       <c r="I2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="J2" t="n">
+        <v>706253.2747287549</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.274728755</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287554</v>
       </c>
       <c r="L2" t="n">
         <v>706253.274728755</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="N2" t="n">
+        <v>706253.274728755</v>
+      </c>
+      <c r="O2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="O2" t="n">
-        <v>706253.2747287552</v>
-      </c>
       <c r="P2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287549</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577091</v>
+        <v>944372.7777577086</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>5067.592601670437</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670414</v>
       </c>
       <c r="G4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670424</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="I4" t="n">
         <v>5067.592601670437</v>
@@ -26444,7 +26444,7 @@
         <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="L4" t="n">
         <v>5067.592601670437</v>
@@ -26453,7 +26453,7 @@
         <v>5067.592601670437</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670436</v>
       </c>
       <c r="O4" t="n">
         <v>5067.592601670437</v>
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-155479.9145744377</v>
+        <v>-155479.9145744378</v>
       </c>
       <c r="C6" t="n">
-        <v>434487.964640107</v>
+        <v>434487.9646401068</v>
       </c>
       <c r="D6" t="n">
-        <v>434487.9646401072</v>
+        <v>434487.9646401071</v>
       </c>
       <c r="E6" t="n">
-        <v>-344309.6254545309</v>
+        <v>-344657.0047088876</v>
       </c>
       <c r="F6" t="n">
-        <v>600063.1523031779</v>
+        <v>599715.7730488202</v>
       </c>
       <c r="G6" t="n">
-        <v>600063.1523031781</v>
+        <v>599715.7730488204</v>
       </c>
       <c r="H6" t="n">
-        <v>600063.152303178</v>
+        <v>599715.7730488211</v>
       </c>
       <c r="I6" t="n">
-        <v>600063.152303178</v>
+        <v>599715.7730488209</v>
       </c>
       <c r="J6" t="n">
-        <v>423639.9331105846</v>
+        <v>423292.5538562276</v>
       </c>
       <c r="K6" t="n">
-        <v>600063.1523031779</v>
+        <v>599715.7730488206</v>
       </c>
       <c r="L6" t="n">
-        <v>600063.1523031775</v>
+        <v>599715.7730488206</v>
       </c>
       <c r="M6" t="n">
-        <v>475854.6415951191</v>
+        <v>475507.2623407625</v>
       </c>
       <c r="N6" t="n">
-        <v>600063.152303178</v>
+        <v>599715.7730488206</v>
       </c>
       <c r="O6" t="n">
-        <v>600063.1523031777</v>
+        <v>599715.773048821</v>
       </c>
       <c r="P6" t="n">
-        <v>600063.1523031782</v>
+        <v>599715.7730488204</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26792,25 +26792,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245874</v>
+        <v>990.2318361245868</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>184.0062896670965</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>192.2123893365375</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27548,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.70334145380497</v>
+        <v>63.3731647155137</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>323.0761449177582</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>105.3448503555367</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>14.65885272800574</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>96.92615468724708</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>64.92471158361951</v>
+        <v>44.47535211858212</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28016,10 +28016,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>68.81218002840612</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>171.4429748595358</v>
       </c>
     </row>
     <row r="11">
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>266.6561007250657</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>248.74493692092</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,28 +32080,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>322.6999460717711</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>436.4492970000073</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>164.9290651940687</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32557,22 +32557,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>232.75998908852</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,7 +33031,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>622.4211036182646</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33265,10 +33265,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33517,7 +33517,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33742,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33979,22 +33979,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34447,7 +34447,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34459,16 +34459,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>381.285518532932</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,13 +35260,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>128.8146617507067</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>110.1905571410458</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193518</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>191.3582339884378</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>302.474889585677</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>22.33282074962425</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>483.8667238383904</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37165,7 +37165,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37627,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38107,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>249.9438064495987</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3262935.395185189</v>
+        <v>3264695.925487974</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8417584.230471389</v>
+        <v>8417584.230471388</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>139.9164830972606</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>133.8822664769756</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>55.90301252244944</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>155.2114886365811</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>90.7080251030368</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>53.04605142285277</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>362.4006936231293</v>
+        <v>362.4006936231289</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.14167849255905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>120.4424239494342</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>74.56049207329603</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,10 +1821,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>251.2117044543522</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>66.25628701154758</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>187.5707271127946</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>44.7513807668926</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>31.26260713376574</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>272.8976078885847</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1563.476704221264</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C2" t="n">
-        <v>1563.476704221264</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>1563.476704221264</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>1177.688451623019</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>766.7025468334118</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>348.7387387315987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2330.70830125988</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2330.70830125988</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.476704221264</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="X2" t="n">
-        <v>1563.476704221264</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="Y2" t="n">
-        <v>1563.476704221264</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>279.346854164887</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>110.4106712369801</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4527,13 +4527,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>210.7222632714565</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1095.807382993972</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1095.807382993972</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1095.807382993972</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>710.0191303957276</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>299.0332256061201</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2588.538531424622</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2588.538531424622</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500978</v>
+        <v>2334.776746062713</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500978</v>
+        <v>2334.776746062713</v>
       </c>
       <c r="W5" t="n">
-        <v>1859.412473230863</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="X5" t="n">
-        <v>1485.946714969784</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="Y5" t="n">
-        <v>1095.807382993972</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4716,16 +4716,16 @@
         <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.94416071721</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776798</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D8" t="n">
-        <v>819.7159451700475</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718032</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4825,25 +4825,25 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
         <v>2323.683332757143</v>
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>680.5111271432434</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5038,28 +5038,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5120,22 +5120,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452619</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718135</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>996.5276398439756</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>827.5914569160688</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>677.474817503733</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>529.5617239213399</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>382.6717764234295</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>215.4756771383094</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5202,10 +5202,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2304.603751475798</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2085.00228649874</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1795.927059842937</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1541.24257163705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1251.82540160009</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.82540160009</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.03282245656</v>
+        <v>1178.176104674215</v>
       </c>
     </row>
     <row r="14">
@@ -5260,40 +5260,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5360,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,28 +5527,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.3099000622266</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>747.3737171343197</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>597.2570777219839</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>449.3439841395908</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>302.4540366416804</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>302.4540366416804</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>160.7422054838785</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5752,10 +5752,10 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5837,19 +5837,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828445</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6463,10 +6463,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6545,19 +6545,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
         <v>402.7245934908939</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6785,16 +6785,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6840,16 +6840,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7019,22 +7019,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,25 +7423,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7493,19 +7493,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
         <v>2319.799627685893</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.777212765616</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377091</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T43" t="n">
-        <v>2415.384692536053</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>2126.309465880251</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1871.624977674364</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1582.207807637403</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1354.218256739386</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.425677595856</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>929.7309773356195</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2104.263230450254</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V46" t="n">
-        <v>1849.578742244367</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W46" t="n">
-        <v>1560.161572207407</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X46" t="n">
-        <v>1332.172021309389</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y46" t="n">
-        <v>1111.379442165859</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8473,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,13 +8543,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>19.8522888967897</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>106.4657939283486</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>0.9259388694757718</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>15.00954930701793</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>38.13892827624252</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24651,7 +24651,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>101.6825818796766</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>186.1428431935225</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.9259388694754307</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>13.28686650065941</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>710522.8824838419</v>
+        <v>710522.8824838417</v>
       </c>
     </row>
     <row r="8">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>710522.8824838419</v>
+        <v>710522.8824838417</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>710522.8824838419</v>
+        <v>710522.8824838417</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312478</v>
       </c>
-      <c r="D2" t="n">
-        <v>718411.5486312481</v>
-      </c>
       <c r="E2" t="n">
+        <v>706253.274728755</v>
+      </c>
+      <c r="F2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="F2" t="n">
-        <v>706253.274728755</v>
-      </c>
       <c r="G2" t="n">
-        <v>706253.2747287549</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287556</v>
@@ -26337,25 +26337,25 @@
         <v>706253.2747287554</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287549</v>
+        <v>706253.274728755</v>
       </c>
       <c r="K2" t="n">
         <v>706253.274728755</v>
       </c>
       <c r="L2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="N2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="O2" t="n">
+        <v>706253.2747287549</v>
+      </c>
+      <c r="P2" t="n">
         <v>706253.274728755</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.274728755</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287549</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577086</v>
+        <v>944372.7777577088</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>5067.592601670437</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670414</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="G4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
         <v>5067.592601670437</v>
@@ -26453,13 +26453,13 @@
         <v>5067.592601670437</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670436</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670418</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670418</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-155479.9145744378</v>
+        <v>-155479.9145744377</v>
       </c>
       <c r="C6" t="n">
-        <v>434487.9646401068</v>
+        <v>434487.964640107</v>
       </c>
       <c r="D6" t="n">
-        <v>434487.9646401071</v>
+        <v>434487.9646401069</v>
       </c>
       <c r="E6" t="n">
-        <v>-344657.0047088876</v>
+        <v>-344344.363379967</v>
       </c>
       <c r="F6" t="n">
-        <v>599715.7730488202</v>
+        <v>600028.4143777423</v>
       </c>
       <c r="G6" t="n">
-        <v>599715.7730488204</v>
+        <v>600028.414377742</v>
       </c>
       <c r="H6" t="n">
-        <v>599715.7730488211</v>
+        <v>600028.4143777424</v>
       </c>
       <c r="I6" t="n">
-        <v>599715.7730488209</v>
+        <v>600028.4143777422</v>
       </c>
       <c r="J6" t="n">
-        <v>423292.5538562276</v>
+        <v>423605.1951851487</v>
       </c>
       <c r="K6" t="n">
-        <v>599715.7730488206</v>
+        <v>600028.4143777419</v>
       </c>
       <c r="L6" t="n">
-        <v>599715.7730488206</v>
+        <v>600028.414377742</v>
       </c>
       <c r="M6" t="n">
-        <v>475507.2623407625</v>
+        <v>475819.9036696835</v>
       </c>
       <c r="N6" t="n">
-        <v>599715.7730488206</v>
+        <v>600028.4143777424</v>
       </c>
       <c r="O6" t="n">
-        <v>599715.773048821</v>
+        <v>600028.4143777416</v>
       </c>
       <c r="P6" t="n">
-        <v>599715.7730488204</v>
+        <v>600028.4143777419</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,13 +26804,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245868</v>
+        <v>990.2318361245871</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>184.0062896670965</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>82.5660538806822</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>92.71246049576291</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>63.3731647155137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0761449177582</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>121.3696613861187</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>44.47535211858212</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>171.4429748595358</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,25 +31840,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>248.74493692092</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>436.4492970000073</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>493.6049778318539</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>232.75998908852</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33265,10 +33265,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>248.7449369209195</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33280,7 +33280,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33505,7 +33505,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33739,10 +33739,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33976,10 +33976,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33991,7 +33991,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>620.1193660647499</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>400.5469039565762</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35193,7 +35193,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>110.1905571410458</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>302.474889585677</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902408</v>
@@ -35965,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>359.6305704175236</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>98.78558167418976</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36600,7 +36600,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410453</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36928,7 +36928,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37080,13 +37080,13 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37153,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37387,10 +37387,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37624,10 +37624,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37639,7 +37639,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>477.9853321427316</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>257.9506595121318</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
